--- a/biology/Médecine/Abrasion_relative_de_la_dentine/Abrasion_relative_de_la_dentine.xlsx
+++ b/biology/Médecine/Abrasion_relative_de_la_dentine/Abrasion_relative_de_la_dentine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abrasion relative de la dentine (Relative dentin abrasivity) (RDA) est un indice d'abrasion des dents par le dentifrice. Depuis 1998, la RDA est définie par la norme DIN EN ISO 11609. D'après cette norme, les dentifrices ayant une valeur RDA inférieure à 250 peuvent être utilisés sans danger pendant toute une vie[1].
-La valeur RDA ne constitue cependant qu'un des facteurs d'usure des dents durant le brossage[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abrasion relative de la dentine (Relative dentin abrasivity) (RDA) est un indice d'abrasion des dents par le dentifrice. Depuis 1998, la RDA est définie par la norme DIN EN ISO 11609. D'après cette norme, les dentifrices ayant une valeur RDA inférieure à 250 peuvent être utilisés sans danger pendant toute une vie.
+La valeur RDA ne constitue cependant qu'un des facteurs d'usure des dents durant le brossage.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
